--- a/docs/SpriteIDs.xlsx
+++ b/docs/SpriteIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DBAFAD-1CC8-402C-9EEE-066A1FC69533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272911D9-68D5-46BC-ABD8-15C294F39557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="0" windowWidth="25050" windowHeight="16020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRTrains IDs" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2795,13 +2795,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3120,11 +3116,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I860"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B718" sqref="B718"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2670" sqref="B2670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3410,10 +3406,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3423,10 +3419,10 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3436,10 +3432,10 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3449,10 +3445,10 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3462,10 +3458,10 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3475,10 +3471,10 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3488,10 +3484,10 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3501,10 +3497,10 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3514,10 +3510,10 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3527,10 +3523,10 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3540,10 +3536,10 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3553,10 +3549,10 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3566,10 +3562,10 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3579,10 +3575,10 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3592,10 +3588,10 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3605,10 +3601,10 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6063,7 +6059,7 @@
         <v>225</v>
       </c>
       <c r="B225" s="1"/>
-      <c r="C225" s="30"/>
+      <c r="C225" s="29"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -6076,7 +6072,7 @@
         <v>226</v>
       </c>
       <c r="B226" s="1"/>
-      <c r="C226" s="30"/>
+      <c r="C226" s="29"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -6089,7 +6085,7 @@
         <v>227</v>
       </c>
       <c r="B227" s="1"/>
-      <c r="C227" s="30"/>
+      <c r="C227" s="29"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6102,7 +6098,7 @@
         <v>228</v>
       </c>
       <c r="B228" s="1"/>
-      <c r="C228" s="30"/>
+      <c r="C228" s="29"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -6115,7 +6111,7 @@
         <v>229</v>
       </c>
       <c r="B229" s="1"/>
-      <c r="C229" s="30"/>
+      <c r="C229" s="29"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -6128,7 +6124,7 @@
         <v>230</v>
       </c>
       <c r="B230" s="1"/>
-      <c r="C230" s="29"/>
+      <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -6141,7 +6137,7 @@
         <v>231</v>
       </c>
       <c r="B231" s="1"/>
-      <c r="C231" s="30"/>
+      <c r="C231" s="29"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -6154,7 +6150,7 @@
         <v>232</v>
       </c>
       <c r="B232" s="1"/>
-      <c r="C232" s="30"/>
+      <c r="C232" s="29"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -6167,7 +6163,7 @@
         <v>233</v>
       </c>
       <c r="B233" s="1"/>
-      <c r="C233" s="30"/>
+      <c r="C233" s="29"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -6180,7 +6176,6 @@
         <v>234</v>
       </c>
       <c r="B234" s="1"/>
-      <c r="C234" s="31"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -6193,7 +6188,7 @@
         <v>235</v>
       </c>
       <c r="B235" s="1"/>
-      <c r="C235" s="29"/>
+      <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -6206,7 +6201,7 @@
         <v>236</v>
       </c>
       <c r="B236" s="1"/>
-      <c r="C236" s="29"/>
+      <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -6219,7 +6214,7 @@
         <v>237</v>
       </c>
       <c r="B237" s="1"/>
-      <c r="C237" s="29"/>
+      <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -6232,7 +6227,7 @@
         <v>238</v>
       </c>
       <c r="B238" s="1"/>
-      <c r="C238" s="29"/>
+      <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -6245,7 +6240,7 @@
         <v>239</v>
       </c>
       <c r="B239" s="1"/>
-      <c r="C239" s="29"/>
+      <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -6258,7 +6253,7 @@
         <v>240</v>
       </c>
       <c r="B240" s="1"/>
-      <c r="C240" s="29"/>
+      <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -6271,7 +6266,7 @@
         <v>241</v>
       </c>
       <c r="B241" s="1"/>
-      <c r="C241" s="29"/>
+      <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -6284,7 +6279,7 @@
         <v>242</v>
       </c>
       <c r="B242" s="1"/>
-      <c r="C242" s="29"/>
+      <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -6297,7 +6292,7 @@
         <v>243</v>
       </c>
       <c r="B243" s="1"/>
-      <c r="C243" s="29"/>
+      <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -6310,7 +6305,7 @@
         <v>244</v>
       </c>
       <c r="B244" s="1"/>
-      <c r="C244" s="29"/>
+      <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -6323,7 +6318,7 @@
         <v>245</v>
       </c>
       <c r="B245" s="1"/>
-      <c r="C245" s="29"/>
+      <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -6336,7 +6331,7 @@
         <v>246</v>
       </c>
       <c r="B246" s="1"/>
-      <c r="C246" s="29"/>
+      <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -6349,7 +6344,7 @@
         <v>247</v>
       </c>
       <c r="B247" s="1"/>
-      <c r="C247" s="29"/>
+      <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -6362,7 +6357,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="1"/>
-      <c r="C248" s="29"/>
+      <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -6375,7 +6370,7 @@
         <v>249</v>
       </c>
       <c r="B249" s="1"/>
-      <c r="C249" s="29"/>
+      <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -6388,7 +6383,7 @@
         <v>250</v>
       </c>
       <c r="B250" s="1"/>
-      <c r="C250" s="29"/>
+      <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -6401,7 +6396,7 @@
         <v>251</v>
       </c>
       <c r="B251" s="1"/>
-      <c r="C251" s="29"/>
+      <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -6414,7 +6409,7 @@
         <v>252</v>
       </c>
       <c r="B252" s="1"/>
-      <c r="C252" s="29"/>
+      <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -6427,7 +6422,7 @@
         <v>253</v>
       </c>
       <c r="B253" s="1"/>
-      <c r="C253" s="29"/>
+      <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -6440,7 +6435,7 @@
         <v>254</v>
       </c>
       <c r="B254" s="1"/>
-      <c r="C254" s="29"/>
+      <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -8217,7 +8212,7 @@
       <c r="I390" s="1"/>
     </row>
     <row r="391" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="29">
+      <c r="A391" s="1">
         <v>392</v>
       </c>
       <c r="C391" s="1"/>
@@ -14313,6 +14308,9061 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
+    </row>
+    <row r="861" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A953" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A954" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A955" s="1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A956" s="1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A957" s="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A958" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A959" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A960" s="1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A961" s="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A962" s="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A963" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A964" s="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A965" s="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A966" s="1">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A967" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A968" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A969" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A970" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A971" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A972" s="1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A973" s="1">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A974" s="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A975" s="1">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A976" s="1">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A977" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A978" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A979" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A980" s="1">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A981" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A982" s="1">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A983" s="1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A984" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A985" s="1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="1">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A987" s="1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A988" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A989" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A990" s="1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A991" s="1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A992" s="1">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A993" s="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A994" s="1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A995" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A996" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A998" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A999" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1087" s="1">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1088" s="1">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1089" s="1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1090" s="1">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1091" s="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1092" s="1">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1093" s="1">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1094" s="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1095" s="1">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1096" s="1">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1142" s="1">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1143" s="1">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1144" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1145" s="1">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1146" s="1">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1147" s="1">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1148" s="1">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1149" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1150" s="1">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1151" s="1">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1152" s="1">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1153" s="1">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1154" s="1">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1155" s="1">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1156" s="1">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1157" s="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1158" s="1">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1159" s="1">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1160" s="1">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1184" s="1">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="1">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1305" s="1">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="1">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="1">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1309" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1310" s="1">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="1">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="1">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1313" s="1">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="1">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1315" s="1">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="1">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1317" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="1">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1319" s="1">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1320" s="1">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1321" s="1">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1322" s="1">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1323" s="1">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1324" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1325" s="1">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1326" s="1">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1327" s="1">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1328" s="1">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1329" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1330" s="1">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1331" s="1">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1332" s="1">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1333" s="1">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1334" s="1">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1335" s="1">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="1">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="1">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="1">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="1">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="1">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="1">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1346" s="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1348" s="1">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1349" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1351" s="1">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1352" s="1">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1361" s="1">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1362" s="1">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1363" s="1">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1364" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1365" s="1">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1366" s="1">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1367" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1368" s="1">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1369" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1370" s="1">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1371" s="1">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1372" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1373" s="1">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1374" s="1">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1375" s="1">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1376" s="1">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1377" s="1">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1378" s="1">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1379" s="1">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1380" s="1">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1381" s="1">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1382" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1383" s="1">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1384" s="1">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1385" s="1">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1386" s="1">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1387" s="1">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1388" s="1">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1389" s="1">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1390" s="1">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1391" s="1">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1392" s="1">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1393" s="1">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1394" s="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1395" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1396" s="1">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1397" s="1">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1398" s="1">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1399" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1400" s="1">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1401" s="1">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1402" s="1">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1403" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1404" s="1">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1405" s="1">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1406" s="1">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1407" s="1">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1408" s="1">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1409" s="1">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1410" s="1">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1411" s="1">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1412" s="1">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1413" s="1">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1414" s="1">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1415" s="1">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1416" s="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1417" s="1">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1418" s="1">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1419" s="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1420" s="1">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1421" s="1">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1422" s="1">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1423" s="1">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1424" s="1">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1425" s="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1426" s="1">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1427" s="1">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1428" s="1">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1429" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1430" s="1">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1431" s="1">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1432" s="1">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1433" s="1">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1434" s="1">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1435" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1436" s="1">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1437" s="1">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1438" s="1">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1439" s="1">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1440" s="1">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1441" s="1">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1442" s="1">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1443" s="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1444" s="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1445" s="1">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1446" s="1">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1447" s="1">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1448" s="1">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1449" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1450" s="1">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1451" s="1">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1452" s="1">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1453" s="1">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1454" s="1">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1455" s="1">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1456" s="1">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1457" s="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1458" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1459" s="1">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1460" s="1">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1461" s="1">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1462" s="1">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1463" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1464" s="1">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1465" s="1">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1466" s="1">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1467" s="1">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1468" s="1">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1469" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1470" s="1">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1471" s="1">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1472" s="1">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1473" s="1">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1474" s="1">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1475" s="1">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1476" s="1">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1477" s="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1478" s="1">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1479" s="1">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1480" s="1">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1481" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1482" s="1">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1483" s="1">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1484" s="1">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1485" s="1">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1486" s="1">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1487" s="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1488" s="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1489" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1490" s="1">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1491" s="1">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1492" s="1">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1493" s="1">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1494" s="1">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1495" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1496" s="1">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1497" s="1">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1498" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1499" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1500" s="1">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1501" s="1">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1502" s="1">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1503" s="1">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1504" s="1">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1505" s="1">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1516" s="1">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1517" s="1">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1518" s="1">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1519" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1520" s="1">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1521" s="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1522" s="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1523" s="1">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1524" s="1">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1525" s="1">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1526" s="1">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1527" s="1">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1528" s="1">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1529" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1530" s="1">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1531" s="1">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1533" s="1">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1534" s="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1535" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1536" s="1">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1537" s="1">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1538" s="1">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1539" s="1">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1540" s="1">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1541" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1542" s="1">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1543" s="1">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1544" s="1">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1545" s="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1546" s="1">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1547" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1548" s="1">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1549" s="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1550" s="1">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1551" s="1">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1552" s="1">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1553" s="1">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1554" s="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1555" s="1">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1556" s="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1557" s="1">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1558" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1559" s="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1560" s="1">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1561" s="1">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1562" s="1">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1563" s="1">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1564" s="1">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1565" s="1">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1566" s="1">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1567" s="1">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1568" s="1">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1570" s="1">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1571" s="1">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1572" s="1">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1573" s="1">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1574" s="1">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1575" s="1">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1576" s="1">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1577" s="1">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1578" s="1">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1579" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1580" s="1">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1581" s="1">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1582" s="1">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1583" s="1">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1584" s="1">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1585" s="1">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1586" s="1">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1587" s="1">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1588" s="1">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1589" s="1">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1590" s="1">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1592" s="1">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1593" s="1">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1594" s="1">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1595" s="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1596" s="1">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1597" s="1">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1598" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1599" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1600" s="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1601" s="1">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1602" s="1">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1603" s="1">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1604" s="1">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1605" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1606" s="1">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1607" s="1">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1608" s="1">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1609" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1610" s="1">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1611" s="1">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1613" s="1">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1614" s="1">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1615" s="1">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1616" s="1">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1617" s="1">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1618" s="1">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1619" s="1">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1620" s="1">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1621" s="1">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1622" s="1">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1623" s="1">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1624" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1625" s="1">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1626" s="1">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1627" s="1">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1628" s="1">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1629" s="1">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1630" s="1">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1631" s="1">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1632" s="1">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1633" s="1">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1634" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1635" s="1">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1636" s="1">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1637" s="1">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1638" s="1">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1639" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1640" s="1">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1641" s="1">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1642" s="1">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1643" s="1">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1644" s="1">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1645" s="1">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1646" s="1">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1647" s="1">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1648" s="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1649" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1650" s="1">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1651" s="1">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1652" s="1">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1653" s="1">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1654" s="1">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1655" s="1">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1656" s="1">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1657" s="1">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1658" s="1">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1659" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1660" s="1">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1661" s="1">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1662" s="1">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1663" s="1">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1664" s="1">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1665" s="1">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1666" s="1">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1667" s="1">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1668" s="1">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1669" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1670" s="1">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1671" s="1">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1672" s="1">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1673" s="1">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1674" s="1">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1675" s="1">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1676" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1677" s="1">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1678" s="1">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1679" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1680" s="1">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1681" s="1">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1682" s="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1683" s="1">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1684" s="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1685" s="1">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1686" s="1">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1687" s="1">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1688" s="1">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1689" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1690" s="1">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1691" s="1">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1692" s="1">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1693" s="1">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1694" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1695" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1696" s="1">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1697" s="1">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1698" s="1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1699" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1700" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1701" s="1">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1702" s="1">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1703" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1704" s="1">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1705" s="1">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1706" s="1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1707" s="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1708" s="1">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1709" s="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1710" s="1">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1711" s="1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1712" s="1">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1713" s="1">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1714" s="1">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1715" s="1">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1716" s="1">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1717" s="1">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1718" s="1">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1719" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1720" s="1">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1721" s="1">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1722" s="1">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1723" s="1">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1724" s="1">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1725" s="1">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1726" s="1">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1727" s="1">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1728" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1729" s="1">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1730" s="1">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1731" s="1">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1732" s="1">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1733" s="1">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1734" s="1">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1735" s="1">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1736" s="1">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1737" s="1">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1738" s="1">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1739" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1740" s="1">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1741" s="1">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1742" s="1">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1743" s="1">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1744" s="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1745" s="1">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1746" s="1">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1747" s="1">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1748" s="1">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1749" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1750" s="1">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1751" s="1">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1752" s="1">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1753" s="1">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1754" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1755" s="1">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1756" s="1">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1757" s="1">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1758" s="1">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1759" s="1">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1760" s="1">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1761" s="1">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1762" s="1">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1763" s="1">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1764" s="1">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1765" s="1">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1766" s="1">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1767" s="1">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1768" s="1">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1769" s="1">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1770" s="1">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1771" s="1">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1772" s="1">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1773" s="1">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1774" s="1">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1775" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1776" s="1">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1777" s="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1778" s="1">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1779" s="1">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1780" s="1">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1781" s="1">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1782" s="1">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1783" s="1">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1784" s="1">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1785" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1786" s="1">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1787" s="1">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1788" s="1">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1789" s="1">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1790" s="1">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1791" s="1">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1792" s="1">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1793" s="1">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1794" s="1">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1795" s="1">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1796" s="1">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1797" s="1">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1798" s="1">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1799" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1800" s="1">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1801" s="1">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1802" s="1">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1803" s="1">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1804" s="1">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1805" s="1">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1806" s="1">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1807" s="1">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1808" s="1">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1809" s="1">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1810" s="1">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1811" s="1">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1812" s="1">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1813" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1814" s="1">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1815" s="1">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1816" s="1">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1817" s="1">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1818" s="1">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1819" s="1">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1820" s="1">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1821" s="1">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1822" s="1">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1823" s="1">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1824" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1825" s="1">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1826" s="1">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1827" s="1">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1828" s="1">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1829" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1830" s="1">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1831" s="1">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1832" s="1">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1833" s="1">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1834" s="1">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1835" s="1">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1836" s="1">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1837" s="1">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1838" s="1">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1839" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1840" s="1">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1841" s="1">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1842" s="1">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1843" s="1">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1844" s="1">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1845" s="1">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1846" s="1">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1847" s="1">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1848" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1849" s="1">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1850" s="1">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1851" s="1">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1852" s="1">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1853" s="1">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1854" s="1">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1855" s="1">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1856" s="1">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1857" s="1">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1858" s="1">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1859" s="1">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1860" s="1">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1861" s="1">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1862" s="1">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1863" s="1">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1864" s="1">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1865" s="1">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1866" s="1">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1867" s="1">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1868" s="1">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1869" s="1">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1870" s="1">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1871" s="1">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1872" s="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1873" s="1">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1874" s="1">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1875" s="1">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1876" s="1">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1877" s="1">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1878" s="1">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1879" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1880" s="1">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1881" s="1">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1882" s="1">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1883" s="1">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1884" s="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1885" s="1">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1886" s="1">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1887" s="1">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1888" s="1">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1889" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1890" s="1">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1891" s="1">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1892" s="1">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1893" s="1">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1894" s="1">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1895" s="1">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1896" s="1">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1897" s="1">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1898" s="1">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1899" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1900" s="1">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1901" s="1">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1902" s="1">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1903" s="1">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1904" s="1">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1905" s="1">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1906" s="1">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1907" s="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1908" s="1">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1909" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1910" s="1">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1911" s="1">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1912" s="1">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1913" s="1">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1914" s="1">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1915" s="1">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1916" s="1">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1917" s="1">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1918" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1919" s="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1920" s="1">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1921" s="1">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1922" s="1">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1923" s="1">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1924" s="1">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1925" s="1">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1926" s="1">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1927" s="1">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1928" s="1">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1929" s="1">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1930" s="1">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1931" s="1">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1932" s="1">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1933" s="1">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1934" s="1">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1935" s="1">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1936" s="1">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1937" s="1">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1938" s="1">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1939" s="1">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1940" s="1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1941" s="1">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1942" s="1">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1943" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1944" s="1">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1945" s="1">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1946" s="1">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1947" s="1">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1948" s="1">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1949" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1950" s="1">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1951" s="1">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1952" s="1">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1953" s="1">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1954" s="1">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1955" s="1">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1956" s="1">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1957" s="1">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1958" s="1">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1959" s="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1960" s="1">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1961" s="1">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1962" s="1">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1963" s="1">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1964" s="1">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1965" s="1">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1966" s="1">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1967" s="1">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1968" s="1">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1969" s="1">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1970" s="1">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1971" s="1">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1972" s="1">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1973" s="1">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1974" s="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1975" s="1">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1976" s="1">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1977" s="1">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1978" s="1">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1979" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1980" s="1">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1981" s="1">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1982" s="1">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1983" s="1">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1984" s="1">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1985" s="1">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1986" s="1">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1987" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1988" s="1">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1989" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1990" s="1">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1991" s="1">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1992" s="1">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1993" s="1">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1994" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1995" s="1">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1996" s="1">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1997" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1998" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1999" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2000" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2001" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2002" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2003" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2004" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2005" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2006" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2007" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2008" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2009" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2010" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2011" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2012" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2013" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2014" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2015" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2016" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2017" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2018" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2019" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2020" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2021" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2022" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2023" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2024" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2025" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2026" s="1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2027" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2028" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2029" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2030" s="1">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2031" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2032" s="1">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2033" s="1">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2034" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2035" s="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2036" s="1">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2037" s="1">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2038" s="1">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2039" s="1">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2040" s="1">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2041" s="1">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2042" s="1">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2043" s="1">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2044" s="1">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2045" s="1">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2046" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2047" s="1">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2048" s="1">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2049" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2050" s="1">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2051" s="1">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2052" s="1">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2053" s="1">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2054" s="1">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2055" s="1">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2056" s="1">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2057" s="1">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2058" s="1">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2059" s="1">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2060" s="1">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2061" s="1">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2062" s="1">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2063" s="1">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2064" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2065" s="1">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2066" s="1">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2067" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2068" s="1">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2069" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2070" s="1">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2071" s="1">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2072" s="1">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2073" s="1">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2074" s="1">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2075" s="1">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2076" s="1">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2077" s="1">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2078" s="1">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2079" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2080" s="1">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2081" s="1">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2082" s="1">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2083" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2084" s="1">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2085" s="1">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2086" s="1">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2087" s="1">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2088" s="1">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2089" s="1">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2090" s="1">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2091" s="1">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2092" s="1">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2093" s="1">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2094" s="1">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2095" s="1">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2096" s="1">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2097" s="1">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2098" s="1">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2099" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2100" s="1">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2101" s="1">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2102" s="1">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2103" s="1">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2104" s="1">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2105" s="1">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2106" s="1">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2107" s="1">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2108" s="1">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2109" s="1">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2110" s="1">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2111" s="1">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2112" s="1">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2113" s="1">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2114" s="1">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2115" s="1">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2116" s="1">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2117" s="1">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2118" s="1">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2119" s="1">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2120" s="1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2121" s="1">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2122" s="1">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2123" s="1">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2124" s="1">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2125" s="1">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2126" s="1">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2127" s="1">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2128" s="1">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2129" s="1">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2130" s="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2131" s="1">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2132" s="1">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2133" s="1">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2134" s="1">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2135" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2136" s="1">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2137" s="1">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2138" s="1">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2139" s="1">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2140" s="1">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2141" s="1">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2142" s="1">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2143" s="1">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2144" s="1">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2145" s="1">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2146" s="1">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2147" s="1">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2148" s="1">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2149" s="1">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2150" s="1">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2151" s="1">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2152" s="1">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2153" s="1">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2154" s="1">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2155" s="1">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2156" s="1">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2157" s="1">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2158" s="1">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2159" s="1">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2160" s="1">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2161" s="1">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2162" s="1">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2163" s="1">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2164" s="1">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2165" s="1">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2166" s="1">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2167" s="1">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2168" s="1">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2169" s="1">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2170" s="1">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2171" s="1">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2172" s="1">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2173" s="1">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2174" s="1">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2175" s="1">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2176" s="1">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2177" s="1">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2178" s="1">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2179" s="1">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2180" s="1">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2181" s="1">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2182" s="1">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2183" s="1">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2184" s="1">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2185" s="1">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2186" s="1">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2187" s="1">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2188" s="1">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2189" s="1">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2190" s="1">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2191" s="1">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2192" s="1">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2193" s="1">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2194" s="1">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2195" s="1">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2196" s="1">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2197" s="1">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2198" s="1">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2199" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2200" s="1">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2201" s="1">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2202" s="1">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2203" s="1">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2204" s="1">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2205" s="1">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2206" s="1">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2207" s="1">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2208" s="1">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2209" s="1">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2210" s="1">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2211" s="1">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2212" s="1">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2213" s="1">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2214" s="1">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2215" s="1">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2216" s="1">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2217" s="1">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2218" s="1">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2219" s="1">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2220" s="1">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2221" s="1">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2222" s="1">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2223" s="1">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2224" s="1">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2225" s="1">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2226" s="1">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2227" s="1">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2228" s="1">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2229" s="1">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2230" s="1">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2231" s="1">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2232" s="1">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2233" s="1">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2234" s="1">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2235" s="1">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2236" s="1">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2237" s="1">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2238" s="1">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2239" s="1">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2240" s="1">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2241" s="1">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2242" s="1">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2243" s="1">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2244" s="1">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2245" s="1">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2246" s="1">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2247" s="1">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2248" s="1">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2249" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2250" s="1">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2251" s="1">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2252" s="1">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2253" s="1">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2254" s="1">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2255" s="1">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2256" s="1">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2257" s="1">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2258" s="1">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2259" s="1">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2260" s="1">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2261" s="1">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2262" s="1">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2263" s="1">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2264" s="1">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2265" s="1">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2266" s="1">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2267" s="1">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2268" s="1">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2269" s="1">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2270" s="1">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2271" s="1">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2272" s="1">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2273" s="1">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2274" s="1">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2275" s="1">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2276" s="1">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2277" s="1">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2278" s="1">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2279" s="1">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2280" s="1">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2281" s="1">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2282" s="1">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2283" s="1">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2284" s="1">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2285" s="1">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2286" s="1">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2287" s="1">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2288" s="1">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2289" s="1">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2290" s="1">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2291" s="1">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2292" s="1">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2293" s="1">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2294" s="1">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2295" s="1">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2296" s="1">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2297" s="1">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2298" s="1">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2299" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2300" s="1">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2301" s="1">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2302" s="1">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2303" s="1">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2304" s="1">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2305" s="1">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2306" s="1">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2307" s="1">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2308" s="1">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2309" s="1">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2310" s="1">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2311" s="1">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2312" s="1">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2313" s="1">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2314" s="1">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2315" s="1">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2316" s="1">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2317" s="1">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2318" s="1">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2319" s="1">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2320" s="1">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2321" s="1">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2322" s="1">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2323" s="1">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2324" s="1">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2325" s="1">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2326" s="1">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2327" s="1">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2328" s="1">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2329" s="1">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2330" s="1">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2331" s="1">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2332" s="1">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2333" s="1">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2334" s="1">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2335" s="1">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2336" s="1">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2337" s="1">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2338" s="1">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2339" s="1">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2340" s="1">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2341" s="1">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2342" s="1">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2343" s="1">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2344" s="1">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2345" s="1">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2346" s="1">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2347" s="1">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2348" s="1">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2349" s="1">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2350" s="1">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2351" s="1">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2352" s="1">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2353" s="1">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2354" s="1">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2355" s="1">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2356" s="1">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2357" s="1">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2358" s="1">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2359" s="1">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2360" s="1">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2361" s="1">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2362" s="1">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2363" s="1">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2364" s="1">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2365" s="1">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2366" s="1">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2367" s="1">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2368" s="1">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2369" s="1">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2370" s="1">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2371" s="1">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2372" s="1">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2373" s="1">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2374" s="1">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2375" s="1">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2376" s="1">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2377" s="1">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2378" s="1">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2379" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2380" s="1">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2381" s="1">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2382" s="1">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2383" s="1">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2384" s="1">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2385" s="1">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2386" s="1">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2387" s="1">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2388" s="1">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2389" s="1">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2390" s="1">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2391" s="1">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2392" s="1">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2393" s="1">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2394" s="1">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2395" s="1">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2396" s="1">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2397" s="1">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2398" s="1">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2399" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2400" s="1">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2401" s="1">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2402" s="1">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2403" s="1">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2404" s="1">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2405" s="1">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2406" s="1">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2407" s="1">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2408" s="1">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2409" s="1">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2410" s="1">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2411" s="1">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2412" s="1">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2413" s="1">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2414" s="1">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2415" s="1">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2416" s="1">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2417" s="1">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2418" s="1">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2419" s="1">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2420" s="1">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2421" s="1">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2422" s="1">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2423" s="1">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2424" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2425" s="1">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2426" s="1">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2427" s="1">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2428" s="1">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2429" s="1">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2430" s="1">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2431" s="1">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2432" s="1">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2433" s="1">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2434" s="1">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2435" s="1">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2436" s="1">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2437" s="1">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2438" s="1">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2439" s="1">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2440" s="1">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2441" s="1">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2442" s="1">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2443" s="1">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2444" s="1">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2445" s="1">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2446" s="1">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2447" s="1">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2448" s="1">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2449" s="1">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2450" s="1">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2451" s="1">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2452" s="1">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2453" s="1">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2454" s="1">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2455" s="1">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2456" s="1">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2457" s="1">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2458" s="1">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2459" s="1">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2460" s="1">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2461" s="1">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2462" s="1">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2463" s="1">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2464" s="1">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2465" s="1">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2466" s="1">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2467" s="1">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2468" s="1">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2469" s="1">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2470" s="1">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2471" s="1">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2472" s="1">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2473" s="1">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2474" s="1">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2475" s="1">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2476" s="1">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2477" s="1">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2478" s="1">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2479" s="1">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2480" s="1">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2481" s="1">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2482" s="1">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2483" s="1">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2484" s="1">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2485" s="1">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2486" s="1">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2487" s="1">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2488" s="1">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2489" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2490" s="1">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2491" s="1">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2492" s="1">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2493" s="1">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2494" s="1">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2495" s="1">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2496" s="1">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2497" s="1">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2498" s="1">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2499" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2500" s="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2501" s="1">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2502" s="1">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2503" s="1">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2504" s="1">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2505" s="1">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2506" s="1">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2507" s="1">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2508" s="1">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2509" s="1">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2510" s="1">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2511" s="1">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2512" s="1">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2513" s="1">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2514" s="1">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2515" s="1">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2516" s="1">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2517" s="1">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2518" s="1">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2519" s="1">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2520" s="1">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2521" s="1">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2522" s="1">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2523" s="1">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2524" s="1">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2525" s="1">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2526" s="1">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2527" s="1">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2528" s="1">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2529" s="1">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2530" s="1">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2531" s="1">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2532" s="1">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2533" s="1">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2534" s="1">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2535" s="1">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2536" s="1">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2537" s="1">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2538" s="1">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2539" s="1">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2540" s="1">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2541" s="1">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2542" s="1">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2543" s="1">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2544" s="1">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2545" s="1">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2546" s="1">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2547" s="1">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2548" s="1">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2549" s="1">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2550" s="1">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2551" s="1">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2552" s="1">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2553" s="1">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2554" s="1">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2555" s="1">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2556" s="1">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2557" s="1">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2558" s="1">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2559" s="1">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2560" s="1">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2561" s="1">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2562" s="1">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2563" s="1">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2564" s="1">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2565" s="1">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2566" s="1">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2567" s="1">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2568" s="1">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2569" s="1">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2570" s="1">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2571" s="1">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2572" s="1">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2573" s="1">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2574" s="1">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2575" s="1">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2576" s="1">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2577" s="1">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2578" s="1">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2579" s="1">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2580" s="1">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2581" s="1">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2582" s="1">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2583" s="1">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2584" s="1">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2585" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2586" s="1">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2587" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2588" s="1">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2589" s="1">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2590" s="1">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2591" s="1">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2592" s="1">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2593" s="1">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2594" s="1">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2595" s="1">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2596" s="1">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2597" s="1">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2598" s="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2599" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2600" s="1">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2601" s="1">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2602" s="1">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2603" s="1">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2604" s="1">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2605" s="1">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2606" s="1">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2607" s="1">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2608" s="1">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2609" s="1">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2610" s="1">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2611" s="1">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2612" s="1">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2613" s="1">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2614" s="1">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2615" s="1">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2616" s="1">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2617" s="1">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2618" s="1">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2619" s="1">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2620" s="1">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2621" s="1">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2622" s="1">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2623" s="1">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2624" s="1">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2625" s="1">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2626" s="1">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2627" s="1">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2628" s="1">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2629" s="1">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2630" s="1">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2631" s="1">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2632" s="1">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2633" s="1">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2634" s="1">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2635" s="1">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2636" s="1">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2637" s="1">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2638" s="1">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2639" s="1">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2640" s="1">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2641" s="1">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2642" s="1">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2643" s="1">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2644" s="1">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2645" s="1">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2646" s="1">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2647" s="1">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2648" s="1">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2649" s="1">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2650" s="1">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2651" s="1">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2652" s="1">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2653" s="1">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2654" s="1">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2655" s="1">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2656" s="1">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2657" s="1">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2658" s="1">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2659" s="1">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2660" s="1">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2661" s="1">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2662" s="1">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2663" s="1">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2664" s="1">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2665" s="1">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2666" s="1">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2667" s="1">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2668" s="1">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2669" s="1">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2670" s="1">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2671" s="1">
+        <v>2672</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -26316,7 +35366,7 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/docs/SpriteIDs.xlsx
+++ b/docs/SpriteIDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRTrains2-Extended\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74897216-E60D-4A3C-998C-C8999083332C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EC1D3-718D-44A6-9ADA-6B21AA7F123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="894">
   <si>
     <t>ID No.</t>
   </si>
@@ -2598,9 +2598,6 @@
     <t>BR_Conflat_A</t>
   </si>
   <si>
-    <t>BR Conflat A</t>
-  </si>
-  <si>
     <t>13 tons</t>
   </si>
   <si>
@@ -2734,6 +2731,18 @@
   </si>
   <si>
     <t>BR Class 37/0 "Tractors" / EE Type 3 - Random Headcode</t>
+  </si>
+  <si>
+    <t>BR_Conflat_P</t>
+  </si>
+  <si>
+    <t>BR Conflat A - Diagram 61/62</t>
+  </si>
+  <si>
+    <t>12 tons</t>
+  </si>
+  <si>
+    <t>BR Conflat P - Diagram 60</t>
   </si>
 </sst>
 </file>
@@ -3225,11 +3234,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3270,491 +3279,513 @@
       <c r="A3">
         <v>500</v>
       </c>
-      <c r="B3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C3" t="s">
-        <v>845</v>
-      </c>
-      <c r="D3">
-        <v>1950</v>
-      </c>
-      <c r="E3" t="s">
-        <v>846</v>
-      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" t="s">
+        <v>891</v>
+      </c>
+      <c r="D4">
+        <v>1950</v>
+      </c>
+      <c r="E4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>502</v>
+      </c>
+      <c r="B5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C5" t="s">
+        <v>893</v>
+      </c>
+      <c r="D5">
+        <v>1959</v>
+      </c>
+      <c r="E5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>720</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>842</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>843</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>1952</v>
       </c>
-      <c r="E4" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3700</v>
-      </c>
-      <c r="B7" t="s">
-        <v>877</v>
-      </c>
-      <c r="C7" t="s">
-        <v>890</v>
-      </c>
-      <c r="D7">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3701</v>
-      </c>
-      <c r="B8" t="s">
-        <v>885</v>
-      </c>
-      <c r="C8" t="s">
-        <v>886</v>
-      </c>
-      <c r="D8">
-        <v>1977</v>
+      <c r="E6" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="C9" t="s">
-        <v>888</v>
+        <v>889</v>
+      </c>
+      <c r="D9">
+        <v>1960</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="B10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C10" t="s">
-        <v>889</v>
+        <v>885</v>
+      </c>
+      <c r="D10">
+        <v>1977</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3710</v>
+        <v>3702</v>
+      </c>
+      <c r="B11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C11" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3720</v>
+        <v>3703</v>
+      </c>
+      <c r="B12" t="s">
+        <v>886</v>
+      </c>
+      <c r="C12" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3730</v>
-      </c>
-      <c r="B13" t="s">
-        <v>882</v>
-      </c>
-      <c r="C13" t="s">
-        <v>883</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3740</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3750</v>
+        <v>3730</v>
+      </c>
+      <c r="B15" t="s">
+        <v>881</v>
+      </c>
+      <c r="C15" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>3760</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>3770</v>
-      </c>
-      <c r="B17" t="s">
-        <v>879</v>
-      </c>
-      <c r="C17" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3790</v>
       </c>
       <c r="B19" t="s">
         <v>878</v>
       </c>
       <c r="C19" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>3790</v>
+      </c>
+      <c r="B21" t="s">
+        <v>877</v>
+      </c>
+      <c r="C21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3800</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>838</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>839</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>2010</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3801</v>
+      </c>
+      <c r="B24" t="s">
+        <v>840</v>
+      </c>
+      <c r="C24" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24">
+        <v>2010</v>
+      </c>
+      <c r="E24" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3801</v>
-      </c>
-      <c r="B22" t="s">
-        <v>840</v>
-      </c>
-      <c r="C22" t="s">
-        <v>841</v>
-      </c>
-      <c r="D22">
-        <v>2010</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3810</v>
+      </c>
+      <c r="B33" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>3806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3808</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>3810</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C33" t="s">
+        <v>851</v>
+      </c>
+      <c r="F33" t="s">
         <v>850</v>
       </c>
-      <c r="C31" t="s">
-        <v>852</v>
-      </c>
-      <c r="F31" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39">
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>4300</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
+        <v>870</v>
+      </c>
+      <c r="C41" t="s">
         <v>871</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4310</v>
+      </c>
+      <c r="B42" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4310</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C42" t="s">
         <v>873</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4320</v>
+      </c>
+      <c r="B43" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>4320</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C43" t="s">
         <v>875</v>
       </c>
-      <c r="C41" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42">
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>4330</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>4340</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>4350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>4360</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>4370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>4390</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4400</v>
-      </c>
-      <c r="B49" t="s">
-        <v>853</v>
-      </c>
-      <c r="C49" t="s">
-        <v>856</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4410</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4420</v>
+        <v>4400</v>
+      </c>
+      <c r="B51" t="s">
+        <v>852</v>
+      </c>
+      <c r="C51" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4430</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>4440</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4450</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>4460</v>
-      </c>
-      <c r="B55" t="s">
-        <v>834</v>
-      </c>
-      <c r="C55" t="s">
-        <v>836</v>
-      </c>
-      <c r="D55">
-        <v>1934</v>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4450</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>4460</v>
+      </c>
+      <c r="B57" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" t="s">
+        <v>836</v>
+      </c>
+      <c r="D57">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>4500</v>
       </c>
-      <c r="B57" t="s">
-        <v>855</v>
-      </c>
-      <c r="C57" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>4600</v>
-      </c>
-      <c r="B58" t="s">
-        <v>858</v>
-      </c>
-      <c r="C58" t="s">
-        <v>859</v>
+      <c r="B59" t="s">
+        <v>854</v>
+      </c>
+      <c r="C59" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="B60" t="s">
-        <v>314</v>
+        <v>857</v>
       </c>
       <c r="C60" t="s">
-        <v>866</v>
-      </c>
-      <c r="D60">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>4710</v>
+        <v>858</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>4720</v>
+        <v>4700</v>
+      </c>
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" t="s">
+        <v>865</v>
+      </c>
+      <c r="D62">
+        <v>1962</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>4730</v>
-      </c>
-      <c r="B63" t="s">
-        <v>867</v>
-      </c>
-      <c r="C63" t="s">
-        <v>868</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>4740</v>
-      </c>
-      <c r="B64" t="s">
-        <v>869</v>
-      </c>
-      <c r="C64" t="s">
-        <v>870</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>4750</v>
+        <v>4730</v>
+      </c>
+      <c r="B65" t="s">
+        <v>866</v>
+      </c>
+      <c r="C65" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>4760</v>
+        <v>4740</v>
       </c>
       <c r="B66" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C66" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>4770</v>
-      </c>
-      <c r="B67" t="s">
-        <v>864</v>
-      </c>
-      <c r="C67" t="s">
-        <v>865</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>4780</v>
+        <v>4760</v>
+      </c>
+      <c r="B68" t="s">
+        <v>859</v>
+      </c>
+      <c r="C68" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>4770</v>
+      </c>
+      <c r="B69" t="s">
+        <v>863</v>
+      </c>
+      <c r="C69" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>4790</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
+        <v>861</v>
+      </c>
+      <c r="C71" t="s">
         <v>862</v>
-      </c>
-      <c r="C69" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>5200</v>
-      </c>
-      <c r="B72" t="s">
-        <v>835</v>
-      </c>
-      <c r="C72" t="s">
-        <v>854</v>
-      </c>
-      <c r="D72">
-        <v>1961</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
+        <v>5200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>835</v>
+      </c>
+      <c r="C74" t="s">
+        <v>853</v>
+      </c>
+      <c r="D74">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>6600</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>837</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <v>1998</v>
       </c>
     </row>
